--- a/Specification/240-0214-EMEL-CS00-0001 GENERATOR SIZING/240-0214-EMEL-CS00-0001 GENERATOR SIZING.xlsx
+++ b/Specification/240-0214-EMEL-CS00-0001 GENERATOR SIZING/240-0214-EMEL-CS00-0001 GENERATOR SIZING.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Project Documentation\P_240_Autocad_Docs\Specification\240-0214-EMEL-CS00-0001 GENERATOR SIZING\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20490" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="7" r:id="rId1"/>
@@ -152,12 +157,12 @@
     <definedName name="zq_syst" localSheetId="1">'[3]CASE A1 CPP'!#REF!</definedName>
     <definedName name="zq_syst">'[3]CASE A1 CPP'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
   <si>
     <t>:</t>
   </si>
@@ -568,9 +573,6 @@
   </si>
   <si>
     <t>REV :  A</t>
-  </si>
-  <si>
-    <t>28/10/2015</t>
   </si>
   <si>
     <t>240-0214-EMEL-CS00-0001</t>
@@ -580,14 +582,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="General_)"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="##,###\ &quot;VAC&quot;"/>
-    <numFmt numFmtId="168" formatCode="#####\ &quot;W&quot;"/>
-    <numFmt numFmtId="169" formatCode="#####\ &quot;kW&quot;"/>
+    <numFmt numFmtId="166" formatCode="##,###\ &quot;VAC&quot;"/>
+    <numFmt numFmtId="167" formatCode="#####\ &quot;W&quot;"/>
+    <numFmt numFmtId="168" formatCode="#####\ &quot;kW&quot;"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1748,7 +1751,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1977,9 +1980,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2009,7 +2009,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,13 +2024,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,16 +2059,16 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2083,41 +2083,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="4" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="4" borderId="70" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="70" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2142,7 +2142,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2151,41 +2151,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="4" borderId="64" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="64" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="64" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="64" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="4" borderId="69" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="69" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="4" borderId="78" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="78" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="78" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="78" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2201,13 +2201,13 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2223,39 +2223,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2333,82 +2300,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2417,51 +2339,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2473,104 +2356,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2580,12 +2365,233 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2643,8 +2649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3272123" y="280147"/>
-          <a:ext cx="818028" cy="672353"/>
+          <a:off x="3399870" y="283509"/>
+          <a:ext cx="884143" cy="697566"/>
           <a:chOff x="6906006" y="266695"/>
           <a:chExt cx="862201" cy="750046"/>
         </a:xfrm>
@@ -2871,8 +2877,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4861552" y="92619"/>
-          <a:ext cx="707504" cy="538988"/>
+          <a:off x="5105083" y="90045"/>
+          <a:ext cx="742772" cy="528690"/>
           <a:chOff x="7337307" y="123191"/>
           <a:chExt cx="684810" cy="487337"/>
         </a:xfrm>
@@ -4089,7 +4095,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4124,7 +4130,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4336,8 +4342,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4376,94 +4382,94 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="211" t="s">
+      <c r="B2" s="193"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="213"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="201"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="214" t="s">
+      <c r="B3" s="196"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="215"/>
-      <c r="O3" s="216"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="204"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="208"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="214" t="s">
+      <c r="B4" s="196"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="216"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="204"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="217" t="s">
+      <c r="B5" s="196"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="219"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="207"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="222"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="210"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
@@ -4476,12 +4482,12 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="223"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="222"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="210"/>
       <c r="H7" s="10" t="s">
         <v>5</v>
       </c>
@@ -4500,12 +4506,12 @@
     </row>
     <row r="8" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="226"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
       <c r="H8" s="16" t="s">
         <v>8</v>
       </c>
@@ -4544,22 +4550,22 @@
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="228"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="228"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="228"/>
-      <c r="N10" s="228"/>
-      <c r="O10" s="229"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="216"/>
+      <c r="N10" s="216"/>
+      <c r="O10" s="217"/>
       <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4611,12 +4617,12 @@
       <c r="J13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="230" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="230"/>
-      <c r="M13" s="230"/>
-      <c r="N13" s="231"/>
+      <c r="K13" s="218" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="219"/>
       <c r="O13" s="31"/>
       <c r="P13" s="21"/>
     </row>
@@ -4811,7 +4817,7 @@
       <c r="F24" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="101">
+      <c r="G24" s="100">
         <v>240</v>
       </c>
       <c r="H24" s="36"/>
@@ -5305,8 +5311,8 @@
       <c r="K49" s="55"/>
       <c r="L49" s="52"/>
       <c r="M49" s="52"/>
-      <c r="N49" s="232"/>
-      <c r="O49" s="233"/>
+      <c r="N49" s="220"/>
+      <c r="O49" s="221"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="56"/>
@@ -5321,8 +5327,8 @@
       <c r="K50" s="61"/>
       <c r="L50" s="59"/>
       <c r="M50" s="59"/>
-      <c r="N50" s="192"/>
-      <c r="O50" s="193"/>
+      <c r="N50" s="191"/>
+      <c r="O50" s="192"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="62"/>
@@ -5337,8 +5343,8 @@
       <c r="K51" s="61"/>
       <c r="L51" s="59"/>
       <c r="M51" s="59"/>
-      <c r="N51" s="192"/>
-      <c r="O51" s="193"/>
+      <c r="N51" s="191"/>
+      <c r="O51" s="192"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="62"/>
@@ -5353,8 +5359,8 @@
       <c r="K52" s="61"/>
       <c r="L52" s="59"/>
       <c r="M52" s="59"/>
-      <c r="N52" s="192"/>
-      <c r="O52" s="193"/>
+      <c r="N52" s="191"/>
+      <c r="O52" s="192"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="62"/>
@@ -5369,8 +5375,8 @@
       <c r="K53" s="61"/>
       <c r="L53" s="59"/>
       <c r="M53" s="59"/>
-      <c r="N53" s="192"/>
-      <c r="O53" s="193"/>
+      <c r="N53" s="191"/>
+      <c r="O53" s="192"/>
     </row>
     <row r="54" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B54" s="66"/>
@@ -5385,38 +5391,38 @@
       <c r="K54" s="72"/>
       <c r="L54" s="69"/>
       <c r="M54" s="69"/>
-      <c r="N54" s="194"/>
-      <c r="O54" s="195"/>
+      <c r="N54" s="222"/>
+      <c r="O54" s="223"/>
     </row>
     <row r="55" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="100" t="s">
-        <v>137</v>
+      <c r="C55" s="326">
+        <v>42136</v>
       </c>
       <c r="D55" s="73"/>
       <c r="E55" s="69">
         <v>2</v>
       </c>
-      <c r="F55" s="202" t="s">
+      <c r="F55" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="G55" s="203"/>
-      <c r="H55" s="203"/>
-      <c r="I55" s="203"/>
-      <c r="J55" s="203"/>
-      <c r="K55" s="204"/>
+      <c r="G55" s="231"/>
+      <c r="H55" s="231"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="231"/>
+      <c r="K55" s="232"/>
       <c r="L55" s="74" t="s">
         <v>74</v>
       </c>
       <c r="M55" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="196" t="s">
+      <c r="N55" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="O55" s="197"/>
+      <c r="O55" s="225"/>
     </row>
     <row r="56" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="75" t="s">
@@ -5429,27 +5435,33 @@
       <c r="E56" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="198" t="s">
+      <c r="F56" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="199"/>
-      <c r="H56" s="199"/>
-      <c r="I56" s="199"/>
-      <c r="J56" s="199"/>
-      <c r="K56" s="200"/>
+      <c r="G56" s="227"/>
+      <c r="H56" s="227"/>
+      <c r="I56" s="227"/>
+      <c r="J56" s="227"/>
+      <c r="K56" s="228"/>
       <c r="L56" s="78" t="s">
         <v>23</v>
       </c>
       <c r="M56" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="N56" s="198" t="s">
+      <c r="N56" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="O56" s="201"/>
+      <c r="O56" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="F56:K56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="F55:K55"/>
     <mergeCell ref="N52:O52"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="H2:O2"/>
@@ -5462,15 +5474,9 @@
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="N50:O50"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="F56:K56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="F55:K55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5482,8 +5488,8 @@
   </sheetPr>
   <dimension ref="A1:M426"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView view="pageLayout" topLeftCell="A53" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5509,7 +5515,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
-      <c r="E1" s="306" t="s">
+      <c r="E1" s="250" t="s">
         <v>122</v>
       </c>
       <c r="F1" s="90"/>
@@ -5523,1456 +5529,1456 @@
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="309"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="311"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="255"/>
       <c r="K2" s="82"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="167"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="313"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="257"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="167"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="315"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="259"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
       <c r="D5" s="85"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="316"/>
-      <c r="G5" s="317"/>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="318"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="262"/>
       <c r="L5" s="93"/>
       <c r="M5" s="93"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="319" t="s">
+      <c r="A6" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="320"/>
+      <c r="B6" s="242"/>
       <c r="C6" s="86" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="87"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="102" t="s">
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="321" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="322"/>
-      <c r="J6" s="104" t="s">
+      <c r="H6" s="243" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="244"/>
+      <c r="J6" s="103" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="285" t="s">
+      <c r="A7" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="246" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="323"/>
-      <c r="G7" s="102" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="324"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="108"/>
+      <c r="H7" s="248"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="107"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="285" t="s">
+      <c r="A8" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="286"/>
-      <c r="C8" s="169" t="s">
+      <c r="B8" s="246"/>
+      <c r="C8" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="102" t="s">
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="288"/>
-      <c r="J8" s="108"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="107"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="286"/>
-      <c r="C9" s="103">
+      <c r="B9" s="246"/>
+      <c r="C9" s="102">
         <v>240</v>
       </c>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="102" t="s">
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="287" t="s">
+      <c r="H9" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="288"/>
-      <c r="J9" s="108"/>
+      <c r="I9" s="273"/>
+      <c r="J9" s="107"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
-      <c r="B10" s="247"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
+      <c r="A10" s="288"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
       <c r="I10" s="83"/>
-      <c r="J10" s="108"/>
+      <c r="J10" s="107"/>
     </row>
     <row r="11" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="291" t="s">
+      <c r="A11" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="289" t="s">
+      <c r="B11" s="286" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="293" t="s">
+      <c r="C11" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="294"/>
-      <c r="E11" s="298" t="s">
+      <c r="D11" s="293"/>
+      <c r="E11" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="300" t="s">
+      <c r="F11" s="276" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="302" t="s">
+      <c r="G11" s="278" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="304" t="s">
+      <c r="H11" s="265" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="304" t="s">
+      <c r="I11" s="265" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="132" t="s">
+      <c r="J11" s="131" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="292"/>
-      <c r="B12" s="290"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="305"/>
-      <c r="I12" s="305"/>
-      <c r="J12" s="133"/>
+      <c r="A12" s="291"/>
+      <c r="B12" s="287"/>
+      <c r="C12" s="294"/>
+      <c r="D12" s="295"/>
+      <c r="E12" s="275"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="279"/>
+      <c r="H12" s="266"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="1:13" s="80" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="167"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
       <c r="H13" s="83"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="130"/>
     </row>
     <row r="14" spans="1:13" s="80" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="189"/>
-      <c r="B14" s="240" t="s">
+      <c r="A14" s="188"/>
+      <c r="B14" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="241"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="135"/>
+      <c r="C14" s="268"/>
+      <c r="D14" s="269"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117">
+      <c r="A15" s="116">
         <v>1</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="279" t="s">
+      <c r="C15" s="298" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="280"/>
-      <c r="E15" s="114">
+      <c r="D15" s="299"/>
+      <c r="E15" s="113">
         <v>400</v>
       </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116">
+      <c r="F15" s="114"/>
+      <c r="G15" s="115">
         <v>1</v>
       </c>
-      <c r="H15" s="278">
+      <c r="H15" s="270">
         <v>5500</v>
       </c>
-      <c r="I15" s="278">
+      <c r="I15" s="270">
         <v>5500</v>
       </c>
-      <c r="J15" s="276"/>
+      <c r="J15" s="282"/>
     </row>
     <row r="16" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117">
+      <c r="A16" s="116">
         <v>2</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="273"/>
-      <c r="E16" s="114">
+      <c r="C16" s="296"/>
+      <c r="D16" s="297"/>
+      <c r="E16" s="113">
         <v>400</v>
       </c>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116">
+      <c r="F16" s="114"/>
+      <c r="G16" s="115">
         <v>1</v>
       </c>
-      <c r="H16" s="267"/>
-      <c r="I16" s="267"/>
-      <c r="J16" s="277"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="284"/>
     </row>
     <row r="17" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117">
+      <c r="A17" s="116">
         <v>3</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="268" t="s">
+      <c r="C17" s="235" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="269"/>
-      <c r="E17" s="114">
+      <c r="D17" s="236"/>
+      <c r="E17" s="113">
         <v>400</v>
       </c>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116">
+      <c r="F17" s="114"/>
+      <c r="G17" s="115">
         <v>1</v>
       </c>
-      <c r="H17" s="278">
+      <c r="H17" s="270">
         <v>5500</v>
       </c>
-      <c r="I17" s="278">
+      <c r="I17" s="270">
         <v>5500</v>
       </c>
-      <c r="J17" s="276"/>
+      <c r="J17" s="282"/>
     </row>
     <row r="18" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="117">
+      <c r="A18" s="116">
         <v>4</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="272"/>
-      <c r="D18" s="273"/>
-      <c r="E18" s="114">
+      <c r="C18" s="296"/>
+      <c r="D18" s="297"/>
+      <c r="E18" s="113">
         <v>400</v>
       </c>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116">
+      <c r="F18" s="114"/>
+      <c r="G18" s="115">
         <v>1</v>
       </c>
-      <c r="H18" s="267"/>
-      <c r="I18" s="267"/>
-      <c r="J18" s="277"/>
+      <c r="H18" s="271"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="284"/>
     </row>
     <row r="19" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117">
+      <c r="A19" s="116">
         <v>5</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="268" t="s">
+      <c r="C19" s="235" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="269"/>
-      <c r="E19" s="114">
+      <c r="D19" s="236"/>
+      <c r="E19" s="113">
         <v>400</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116">
+      <c r="F19" s="114"/>
+      <c r="G19" s="115">
         <v>1</v>
       </c>
-      <c r="H19" s="166">
+      <c r="H19" s="165">
         <v>22000</v>
       </c>
-      <c r="I19" s="170">
+      <c r="I19" s="169">
         <v>15000</v>
       </c>
-      <c r="J19" s="276"/>
+      <c r="J19" s="282"/>
     </row>
     <row r="20" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="117">
+      <c r="A20" s="116">
         <v>6</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="268" t="s">
+      <c r="C20" s="235" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="269"/>
-      <c r="E20" s="114">
+      <c r="D20" s="236"/>
+      <c r="E20" s="113">
         <v>400</v>
       </c>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116">
+      <c r="F20" s="114"/>
+      <c r="G20" s="115">
         <v>1</v>
       </c>
-      <c r="H20" s="166">
+      <c r="H20" s="165">
         <v>22000</v>
       </c>
-      <c r="I20" s="170">
+      <c r="I20" s="169">
         <v>15000</v>
       </c>
-      <c r="J20" s="277"/>
+      <c r="J20" s="284"/>
     </row>
     <row r="21" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="117">
+      <c r="A21" s="116">
         <v>7</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="268" t="s">
+      <c r="C21" s="235" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="269"/>
-      <c r="E21" s="114">
+      <c r="D21" s="236"/>
+      <c r="E21" s="113">
         <v>400</v>
       </c>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116">
+      <c r="F21" s="114"/>
+      <c r="G21" s="115">
         <v>1</v>
       </c>
-      <c r="H21" s="163">
+      <c r="H21" s="162">
         <v>15000</v>
       </c>
-      <c r="I21" s="172">
+      <c r="I21" s="171">
         <v>15000</v>
       </c>
-      <c r="J21" s="276"/>
+      <c r="J21" s="282"/>
     </row>
     <row r="22" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117">
+      <c r="A22" s="116">
         <v>8</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="268" t="s">
+      <c r="C22" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="269"/>
-      <c r="E22" s="114">
+      <c r="D22" s="236"/>
+      <c r="E22" s="113">
         <v>400</v>
       </c>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116">
+      <c r="F22" s="114"/>
+      <c r="G22" s="115">
         <v>1</v>
       </c>
-      <c r="H22" s="163">
+      <c r="H22" s="162">
         <v>15000</v>
       </c>
-      <c r="I22" s="172">
+      <c r="I22" s="171">
         <v>15000</v>
       </c>
-      <c r="J22" s="277"/>
+      <c r="J22" s="284"/>
     </row>
     <row r="23" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117">
+      <c r="A23" s="116">
         <v>9</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="281" t="s">
+      <c r="C23" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="282"/>
-      <c r="E23" s="114">
+      <c r="D23" s="238"/>
+      <c r="E23" s="113">
         <v>400</v>
       </c>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116">
+      <c r="F23" s="114"/>
+      <c r="G23" s="115">
         <v>1</v>
       </c>
-      <c r="H23" s="166">
+      <c r="H23" s="165">
         <v>22000</v>
       </c>
-      <c r="I23" s="170">
+      <c r="I23" s="169">
         <v>15000</v>
       </c>
-      <c r="J23" s="276"/>
+      <c r="J23" s="282"/>
     </row>
     <row r="24" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="117">
+      <c r="A24" s="116">
         <v>10</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="283"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="114">
+      <c r="C24" s="239"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="113">
         <v>400</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116">
+      <c r="F24" s="114"/>
+      <c r="G24" s="115">
         <v>1</v>
       </c>
-      <c r="H24" s="163">
+      <c r="H24" s="162">
         <v>15000</v>
       </c>
-      <c r="I24" s="172">
+      <c r="I24" s="171">
         <v>15000</v>
       </c>
-      <c r="J24" s="277"/>
+      <c r="J24" s="284"/>
     </row>
     <row r="25" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117">
+      <c r="A25" s="116">
         <v>11</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="281" t="s">
+      <c r="C25" s="237" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="282"/>
-      <c r="E25" s="114">
+      <c r="D25" s="238"/>
+      <c r="E25" s="113">
         <v>400</v>
       </c>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116">
+      <c r="F25" s="114"/>
+      <c r="G25" s="115">
         <v>1</v>
       </c>
-      <c r="H25" s="170">
+      <c r="H25" s="169">
         <v>22000</v>
       </c>
-      <c r="I25" s="134"/>
-      <c r="J25" s="276"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="282"/>
     </row>
     <row r="26" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117">
+      <c r="A26" s="116">
         <v>12</v>
       </c>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="284"/>
-      <c r="E26" s="114">
+      <c r="C26" s="239"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="113">
         <v>400</v>
       </c>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116">
+      <c r="F26" s="114"/>
+      <c r="G26" s="115">
         <v>1</v>
       </c>
-      <c r="H26" s="172">
+      <c r="H26" s="171">
         <v>15000</v>
       </c>
-      <c r="I26" s="134"/>
-      <c r="J26" s="277"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="284"/>
     </row>
     <row r="27" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117">
+      <c r="A27" s="116">
         <v>13</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="281" t="s">
+      <c r="C27" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="282"/>
-      <c r="E27" s="114">
+      <c r="D27" s="238"/>
+      <c r="E27" s="113">
         <v>400</v>
       </c>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116">
+      <c r="F27" s="114"/>
+      <c r="G27" s="115">
         <v>1</v>
       </c>
-      <c r="H27" s="121">
+      <c r="H27" s="120">
         <v>22000</v>
       </c>
-      <c r="I27" s="121">
+      <c r="I27" s="120">
         <v>15000</v>
       </c>
-      <c r="J27" s="276"/>
+      <c r="J27" s="282"/>
     </row>
     <row r="28" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117">
+      <c r="A28" s="116">
         <v>14</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="283"/>
-      <c r="D28" s="284"/>
-      <c r="E28" s="114">
+      <c r="C28" s="239"/>
+      <c r="D28" s="240"/>
+      <c r="E28" s="113">
         <v>400</v>
       </c>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116">
+      <c r="F28" s="114"/>
+      <c r="G28" s="115">
         <v>1</v>
       </c>
-      <c r="H28" s="134">
+      <c r="H28" s="133">
         <v>15000</v>
       </c>
-      <c r="I28" s="134">
+      <c r="I28" s="133">
         <v>15000</v>
       </c>
-      <c r="J28" s="277"/>
+      <c r="J28" s="284"/>
     </row>
     <row r="29" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117">
+      <c r="A29" s="116">
         <v>15</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="281" t="s">
+      <c r="C29" s="237" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="282"/>
-      <c r="E29" s="114">
+      <c r="D29" s="238"/>
+      <c r="E29" s="113">
         <v>400</v>
       </c>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116">
+      <c r="F29" s="114"/>
+      <c r="G29" s="115">
         <v>1</v>
       </c>
-      <c r="H29" s="170">
+      <c r="H29" s="169">
         <v>22000</v>
       </c>
-      <c r="I29" s="134"/>
-      <c r="J29" s="276"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="282"/>
     </row>
     <row r="30" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117">
+      <c r="A30" s="116">
         <v>16</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="283"/>
-      <c r="D30" s="284"/>
-      <c r="E30" s="114">
+      <c r="C30" s="239"/>
+      <c r="D30" s="240"/>
+      <c r="E30" s="113">
         <v>400</v>
       </c>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116">
+      <c r="F30" s="114"/>
+      <c r="G30" s="115">
         <v>1</v>
       </c>
-      <c r="H30" s="172">
+      <c r="H30" s="171">
         <v>15000</v>
       </c>
-      <c r="I30" s="134"/>
-      <c r="J30" s="277"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="284"/>
     </row>
     <row r="31" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117">
+      <c r="A31" s="116">
         <v>17</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="264" t="s">
+      <c r="C31" s="233" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="265"/>
-      <c r="E31" s="114">
+      <c r="D31" s="234"/>
+      <c r="E31" s="113">
         <v>400</v>
       </c>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116">
+      <c r="F31" s="114"/>
+      <c r="G31" s="115">
         <v>1</v>
       </c>
-      <c r="H31" s="163">
+      <c r="H31" s="162">
         <v>3000</v>
       </c>
-      <c r="I31" s="172">
+      <c r="I31" s="171">
         <v>3000</v>
       </c>
-      <c r="J31" s="136"/>
+      <c r="J31" s="135"/>
     </row>
     <row r="32" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117">
+      <c r="A32" s="116">
         <v>18</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="264" t="s">
+      <c r="C32" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="265"/>
-      <c r="E32" s="114">
+      <c r="D32" s="234"/>
+      <c r="E32" s="113">
         <v>400</v>
       </c>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116">
+      <c r="F32" s="114"/>
+      <c r="G32" s="115">
         <v>1</v>
       </c>
-      <c r="H32" s="163">
+      <c r="H32" s="162">
         <v>11000</v>
       </c>
-      <c r="I32" s="172">
+      <c r="I32" s="171">
         <v>11000</v>
       </c>
-      <c r="J32" s="136"/>
+      <c r="J32" s="135"/>
     </row>
     <row r="33" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117">
+      <c r="A33" s="116">
         <v>19</v>
       </c>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="264" t="s">
+      <c r="C33" s="233" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="265"/>
-      <c r="E33" s="114">
+      <c r="D33" s="234"/>
+      <c r="E33" s="113">
         <v>230</v>
       </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116">
+      <c r="F33" s="114"/>
+      <c r="G33" s="115">
         <v>1</v>
       </c>
-      <c r="H33" s="260">
+      <c r="H33" s="263">
         <v>1000</v>
       </c>
-      <c r="I33" s="260">
+      <c r="I33" s="263">
         <v>1000</v>
       </c>
-      <c r="J33" s="136"/>
+      <c r="J33" s="135"/>
     </row>
     <row r="34" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="117">
+      <c r="A34" s="116">
         <v>20</v>
       </c>
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="264" t="s">
+      <c r="C34" s="233" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="265"/>
-      <c r="E34" s="114">
+      <c r="D34" s="234"/>
+      <c r="E34" s="113">
         <v>230</v>
       </c>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116">
+      <c r="F34" s="114"/>
+      <c r="G34" s="115">
         <v>1</v>
       </c>
-      <c r="H34" s="261"/>
-      <c r="I34" s="261"/>
-      <c r="J34" s="136"/>
+      <c r="H34" s="264"/>
+      <c r="I34" s="264"/>
+      <c r="J34" s="135"/>
     </row>
     <row r="35" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117">
+      <c r="A35" s="116">
         <v>21</v>
       </c>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="164" t="s">
+      <c r="C35" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="165"/>
-      <c r="E35" s="114">
+      <c r="D35" s="164"/>
+      <c r="E35" s="113">
         <v>230</v>
       </c>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116">
+      <c r="F35" s="114"/>
+      <c r="G35" s="115">
         <v>1</v>
       </c>
-      <c r="H35" s="163">
+      <c r="H35" s="162">
         <v>3000</v>
       </c>
-      <c r="I35" s="172">
+      <c r="I35" s="171">
         <v>3000</v>
       </c>
-      <c r="J35" s="136"/>
+      <c r="J35" s="135"/>
     </row>
     <row r="36" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117">
+      <c r="A36" s="116">
         <v>22</v>
       </c>
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="264" t="s">
+      <c r="C36" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="265"/>
-      <c r="E36" s="114">
+      <c r="D36" s="234"/>
+      <c r="E36" s="113">
         <v>400</v>
       </c>
-      <c r="F36" s="115"/>
-      <c r="G36" s="116">
+      <c r="F36" s="114"/>
+      <c r="G36" s="115">
         <v>1</v>
       </c>
-      <c r="H36" s="163">
+      <c r="H36" s="162">
         <v>6000</v>
       </c>
-      <c r="I36" s="172">
+      <c r="I36" s="171">
         <v>6000</v>
       </c>
-      <c r="J36" s="136"/>
+      <c r="J36" s="135"/>
     </row>
     <row r="37" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117">
+      <c r="A37" s="116">
         <v>23</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="264" t="s">
+      <c r="C37" s="233" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="265"/>
-      <c r="E37" s="114">
+      <c r="D37" s="234"/>
+      <c r="E37" s="113">
         <v>400</v>
       </c>
-      <c r="F37" s="115"/>
-      <c r="G37" s="116">
+      <c r="F37" s="114"/>
+      <c r="G37" s="115">
         <v>1</v>
       </c>
-      <c r="H37" s="163">
+      <c r="H37" s="162">
         <v>6000</v>
       </c>
-      <c r="I37" s="172">
+      <c r="I37" s="171">
         <v>6000</v>
       </c>
-      <c r="J37" s="136"/>
+      <c r="J37" s="135"/>
     </row>
     <row r="38" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="117">
+      <c r="A38" s="116">
         <v>24</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="264" t="s">
+      <c r="C38" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="265"/>
-      <c r="E38" s="114">
+      <c r="D38" s="234"/>
+      <c r="E38" s="113">
         <v>400</v>
       </c>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116">
+      <c r="F38" s="114"/>
+      <c r="G38" s="115">
         <v>1</v>
       </c>
-      <c r="H38" s="163">
+      <c r="H38" s="162">
         <v>11000</v>
       </c>
-      <c r="I38" s="188">
+      <c r="I38" s="187">
         <v>11000</v>
       </c>
-      <c r="J38" s="136"/>
+      <c r="J38" s="135"/>
     </row>
     <row r="39" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="117">
+      <c r="A39" s="116">
         <v>25</v>
       </c>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="264" t="s">
+      <c r="C39" s="233" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="265"/>
-      <c r="E39" s="114">
+      <c r="D39" s="234"/>
+      <c r="E39" s="113">
         <v>400</v>
       </c>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116">
+      <c r="F39" s="114"/>
+      <c r="G39" s="115">
         <v>1</v>
       </c>
-      <c r="H39" s="163">
+      <c r="H39" s="162">
         <v>750</v>
       </c>
-      <c r="I39" s="172">
+      <c r="I39" s="171">
         <v>750</v>
       </c>
-      <c r="J39" s="136"/>
+      <c r="J39" s="135"/>
     </row>
     <row r="40" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117">
+      <c r="A40" s="116">
         <v>26</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="264" t="s">
+      <c r="C40" s="233" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="265"/>
-      <c r="E40" s="114">
+      <c r="D40" s="234"/>
+      <c r="E40" s="113">
         <v>400</v>
       </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116">
+      <c r="F40" s="114"/>
+      <c r="G40" s="115">
         <v>1</v>
       </c>
-      <c r="H40" s="163">
+      <c r="H40" s="162">
         <v>12000</v>
       </c>
-      <c r="I40" s="172">
+      <c r="I40" s="171">
         <v>12000</v>
       </c>
-      <c r="J40" s="136"/>
+      <c r="J40" s="135"/>
     </row>
     <row r="41" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="117">
+      <c r="A41" s="116">
         <v>27</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="264" t="s">
+      <c r="C41" s="233" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="265"/>
-      <c r="E41" s="114">
+      <c r="D41" s="234"/>
+      <c r="E41" s="113">
         <v>400</v>
       </c>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116">
+      <c r="F41" s="114"/>
+      <c r="G41" s="115">
         <v>1</v>
       </c>
-      <c r="H41" s="260">
+      <c r="H41" s="263">
         <v>3000</v>
       </c>
-      <c r="I41" s="260">
+      <c r="I41" s="263">
         <v>500</v>
       </c>
-      <c r="J41" s="276"/>
+      <c r="J41" s="282"/>
     </row>
     <row r="42" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="117">
+      <c r="A42" s="116">
         <v>28</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="264" t="s">
+      <c r="C42" s="233" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="265"/>
-      <c r="E42" s="114">
+      <c r="D42" s="234"/>
+      <c r="E42" s="113">
         <v>400</v>
       </c>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116">
+      <c r="F42" s="114"/>
+      <c r="G42" s="115">
         <v>1</v>
       </c>
-      <c r="H42" s="261"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="277"/>
+      <c r="H42" s="264"/>
+      <c r="I42" s="264"/>
+      <c r="J42" s="284"/>
     </row>
     <row r="43" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="117">
+      <c r="A43" s="116">
         <v>29</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="264" t="s">
+      <c r="C43" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="265"/>
-      <c r="E43" s="114">
+      <c r="D43" s="234"/>
+      <c r="E43" s="113">
         <v>400</v>
       </c>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116">
+      <c r="F43" s="114"/>
+      <c r="G43" s="115">
         <v>1</v>
       </c>
-      <c r="H43" s="260">
+      <c r="H43" s="263">
         <v>750</v>
       </c>
-      <c r="I43" s="260">
+      <c r="I43" s="263">
         <v>750</v>
       </c>
-      <c r="J43" s="276"/>
+      <c r="J43" s="282"/>
     </row>
     <row r="44" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="117">
+      <c r="A44" s="116">
         <v>30</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="264" t="s">
+      <c r="C44" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="265"/>
-      <c r="E44" s="114">
+      <c r="D44" s="234"/>
+      <c r="E44" s="113">
         <v>400</v>
       </c>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116">
+      <c r="F44" s="114"/>
+      <c r="G44" s="115">
         <v>1</v>
       </c>
-      <c r="H44" s="261"/>
-      <c r="I44" s="261"/>
-      <c r="J44" s="277"/>
+      <c r="H44" s="264"/>
+      <c r="I44" s="264"/>
+      <c r="J44" s="284"/>
     </row>
     <row r="45" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="117">
+      <c r="A45" s="116">
         <v>31</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="264" t="s">
+      <c r="C45" s="233" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="265"/>
-      <c r="E45" s="114">
+      <c r="D45" s="234"/>
+      <c r="E45" s="113">
         <v>400</v>
       </c>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116">
+      <c r="F45" s="114"/>
+      <c r="G45" s="115">
         <v>1</v>
       </c>
-      <c r="H45" s="260">
+      <c r="H45" s="263">
         <v>750</v>
       </c>
-      <c r="I45" s="260">
+      <c r="I45" s="263">
         <v>750</v>
       </c>
-      <c r="J45" s="276"/>
+      <c r="J45" s="282"/>
     </row>
     <row r="46" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="117">
+      <c r="A46" s="116">
         <v>32</v>
       </c>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="264" t="s">
+      <c r="C46" s="233" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="265"/>
-      <c r="E46" s="114">
+      <c r="D46" s="234"/>
+      <c r="E46" s="113">
         <v>400</v>
       </c>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116">
+      <c r="F46" s="114"/>
+      <c r="G46" s="115">
         <v>1</v>
       </c>
-      <c r="H46" s="261"/>
-      <c r="I46" s="261"/>
-      <c r="J46" s="277"/>
+      <c r="H46" s="264"/>
+      <c r="I46" s="264"/>
+      <c r="J46" s="284"/>
     </row>
     <row r="47" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="117">
+      <c r="A47" s="116">
         <v>33</v>
       </c>
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="164" t="s">
+      <c r="C47" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="165"/>
-      <c r="E47" s="114">
+      <c r="D47" s="164"/>
+      <c r="E47" s="113">
         <v>400</v>
       </c>
-      <c r="F47" s="114"/>
-      <c r="G47" s="115">
+      <c r="F47" s="113"/>
+      <c r="G47" s="114">
         <v>1</v>
       </c>
-      <c r="H47" s="166">
+      <c r="H47" s="165">
         <v>18000</v>
       </c>
-      <c r="I47" s="170">
+      <c r="I47" s="169">
         <v>10000</v>
       </c>
-      <c r="J47" s="173"/>
+      <c r="J47" s="172"/>
     </row>
     <row r="48" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="117">
+      <c r="A48" s="116">
         <v>34</v>
       </c>
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="268" t="s">
+      <c r="C48" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="269"/>
-      <c r="E48" s="114">
+      <c r="D48" s="236"/>
+      <c r="E48" s="113">
         <v>400</v>
       </c>
-      <c r="F48" s="115"/>
-      <c r="G48" s="116">
+      <c r="F48" s="114"/>
+      <c r="G48" s="115">
         <v>1</v>
       </c>
-      <c r="H48" s="266">
+      <c r="H48" s="285">
         <v>15000</v>
       </c>
-      <c r="I48" s="266">
+      <c r="I48" s="285">
         <v>15000</v>
       </c>
-      <c r="J48" s="276"/>
+      <c r="J48" s="282"/>
     </row>
     <row r="49" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="117">
+      <c r="A49" s="116">
         <v>35</v>
       </c>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="270"/>
-      <c r="D49" s="271"/>
-      <c r="E49" s="114">
+      <c r="C49" s="302"/>
+      <c r="D49" s="303"/>
+      <c r="E49" s="113">
         <v>400</v>
       </c>
-      <c r="F49" s="115"/>
-      <c r="G49" s="116">
+      <c r="F49" s="114"/>
+      <c r="G49" s="115">
         <v>1</v>
       </c>
-      <c r="H49" s="266"/>
-      <c r="I49" s="266"/>
-      <c r="J49" s="297"/>
+      <c r="H49" s="285"/>
+      <c r="I49" s="285"/>
+      <c r="J49" s="283"/>
     </row>
     <row r="50" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="117">
+      <c r="A50" s="116">
         <v>36</v>
       </c>
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="272"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="114">
+      <c r="C50" s="296"/>
+      <c r="D50" s="297"/>
+      <c r="E50" s="113">
         <v>400</v>
       </c>
-      <c r="F50" s="115"/>
-      <c r="G50" s="116">
+      <c r="F50" s="114"/>
+      <c r="G50" s="115">
         <v>1</v>
       </c>
-      <c r="H50" s="267"/>
-      <c r="I50" s="267"/>
-      <c r="J50" s="277"/>
+      <c r="H50" s="271"/>
+      <c r="I50" s="271"/>
+      <c r="J50" s="284"/>
     </row>
     <row r="51" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="117">
+      <c r="A51" s="116">
         <v>37</v>
       </c>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="238" t="s">
+      <c r="C51" s="280" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="239"/>
-      <c r="E51" s="114">
+      <c r="D51" s="281"/>
+      <c r="E51" s="113">
         <v>230</v>
       </c>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116">
+      <c r="F51" s="114"/>
+      <c r="G51" s="115">
         <v>1</v>
       </c>
-      <c r="H51" s="260">
+      <c r="H51" s="263">
         <v>4800</v>
       </c>
-      <c r="I51" s="260">
+      <c r="I51" s="263">
         <v>4800</v>
       </c>
-      <c r="J51" s="174"/>
+      <c r="J51" s="173"/>
     </row>
     <row r="52" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="117">
+      <c r="A52" s="116">
         <v>38</v>
       </c>
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="238" t="s">
+      <c r="C52" s="280" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="239"/>
-      <c r="E52" s="114">
+      <c r="D52" s="281"/>
+      <c r="E52" s="113">
         <v>230</v>
       </c>
-      <c r="F52" s="115"/>
-      <c r="G52" s="116">
+      <c r="F52" s="114"/>
+      <c r="G52" s="115">
         <v>1</v>
       </c>
-      <c r="H52" s="261"/>
-      <c r="I52" s="261"/>
-      <c r="J52" s="174"/>
+      <c r="H52" s="264"/>
+      <c r="I52" s="264"/>
+      <c r="J52" s="173"/>
     </row>
     <row r="53" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="117">
+      <c r="A53" s="116">
         <v>39</v>
       </c>
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="238" t="s">
+      <c r="C53" s="280" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="239"/>
-      <c r="E53" s="114">
+      <c r="D53" s="281"/>
+      <c r="E53" s="113">
         <v>230</v>
       </c>
-      <c r="F53" s="115"/>
-      <c r="G53" s="116">
+      <c r="F53" s="114"/>
+      <c r="G53" s="115">
         <v>1</v>
       </c>
-      <c r="H53" s="163">
+      <c r="H53" s="162">
         <v>800</v>
       </c>
-      <c r="I53" s="172">
+      <c r="I53" s="171">
         <v>100</v>
       </c>
-      <c r="J53" s="174"/>
+      <c r="J53" s="173"/>
     </row>
     <row r="54" spans="1:10" s="80" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="191"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="274"/>
-      <c r="D54" s="275"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="174"/>
+      <c r="A54" s="190"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="304"/>
+      <c r="D54" s="305"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="173"/>
     </row>
     <row r="55" spans="1:10" s="80" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="190"/>
-      <c r="B55" s="240" t="s">
+      <c r="A55" s="189"/>
+      <c r="B55" s="267" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="241"/>
-      <c r="D55" s="242"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="174"/>
+      <c r="C55" s="268"/>
+      <c r="D55" s="269"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="173"/>
     </row>
     <row r="56" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="117"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="238"/>
-      <c r="D56" s="239"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="174"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="280"/>
+      <c r="D56" s="281"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="173"/>
     </row>
     <row r="57" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="117">
+      <c r="A57" s="116">
         <v>40</v>
       </c>
-      <c r="B57" s="120"/>
-      <c r="C57" s="238" t="s">
+      <c r="B57" s="119"/>
+      <c r="C57" s="280" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="239"/>
-      <c r="E57" s="114">
+      <c r="D57" s="281"/>
+      <c r="E57" s="113">
         <v>400</v>
       </c>
-      <c r="F57" s="115"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="163">
+      <c r="F57" s="114"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="162">
         <v>50000</v>
       </c>
-      <c r="I57" s="172">
+      <c r="I57" s="171">
         <v>50000</v>
       </c>
-      <c r="J57" s="174"/>
+      <c r="J57" s="173"/>
     </row>
     <row r="58" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="117">
+      <c r="A58" s="116">
         <v>41</v>
       </c>
-      <c r="B58" s="138"/>
-      <c r="C58" s="258" t="s">
+      <c r="B58" s="137"/>
+      <c r="C58" s="324" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="259"/>
-      <c r="E58" s="114">
+      <c r="D58" s="325"/>
+      <c r="E58" s="113">
         <v>400</v>
       </c>
-      <c r="F58" s="115"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="166">
+      <c r="F58" s="114"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="165">
         <v>10000</v>
       </c>
-      <c r="I58" s="170">
+      <c r="I58" s="169">
         <v>10000</v>
       </c>
-      <c r="J58" s="175"/>
+      <c r="J58" s="174"/>
     </row>
     <row r="59" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="139"/>
-      <c r="B59" s="120"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="176"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="175"/>
     </row>
     <row r="60" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="177"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="256"/>
-      <c r="D60" s="257"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
-      <c r="J60" s="178"/>
+      <c r="A60" s="176"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="322"/>
+      <c r="D60" s="323"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="145"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="177"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="179"/>
-      <c r="B61" s="144"/>
-      <c r="C61" s="254"/>
-      <c r="D61" s="255"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="149"/>
-      <c r="I61" s="149"/>
-      <c r="J61" s="180"/>
+      <c r="A61" s="178"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="320"/>
+      <c r="D61" s="321"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="179"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="124"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="186" t="s">
+      <c r="A62" s="123"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="I62" s="150">
+      <c r="I62" s="149">
         <f>SUM(I15:I61)</f>
         <v>276650</v>
       </c>
-      <c r="J62" s="151"/>
+      <c r="J62" s="150"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="124"/>
-      <c r="B63" s="125"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="187"/>
-      <c r="I63" s="152">
+      <c r="A63" s="123"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="186"/>
+      <c r="I63" s="151">
         <f>I62/1000</f>
         <v>276.64999999999998</v>
       </c>
-      <c r="J63" s="152"/>
+      <c r="J63" s="151"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="124"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="181"/>
+      <c r="A64" s="123"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="180"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="124"/>
-      <c r="B65" s="125"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="157" t="s">
+      <c r="A65" s="123"/>
+      <c r="B65" s="124"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="154">
+      <c r="E65" s="153">
         <f>I63</f>
         <v>276.64999999999998</v>
       </c>
-      <c r="F65" s="154"/>
-      <c r="G65" s="155"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="182"/>
-      <c r="K65" s="125"/>
-      <c r="L65" s="129"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="155"/>
+      <c r="J65" s="181"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="128"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="124"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="157" t="s">
+      <c r="A66" s="123"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="E66" s="154">
+      <c r="E66" s="153">
         <f>E65*0.8</f>
         <v>221.32</v>
       </c>
-      <c r="F66" s="154"/>
-      <c r="G66" s="155"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="183"/>
-      <c r="K66" s="125"/>
-      <c r="L66" s="129"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="154"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="182"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="128"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="124"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="157" t="s">
+      <c r="A67" s="123"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="E67" s="154">
+      <c r="E67" s="153">
         <v>250</v>
       </c>
-      <c r="F67" s="154"/>
-      <c r="G67" s="155"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="182"/>
-      <c r="K67" s="125"/>
-      <c r="L67" s="129"/>
+      <c r="F67" s="153"/>
+      <c r="G67" s="154"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="181"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="128"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="124"/>
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="185" t="s">
+      <c r="A68" s="123"/>
+      <c r="B68" s="124"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="154">
+      <c r="E68" s="153">
         <v>276</v>
       </c>
-      <c r="F68" s="154"/>
-      <c r="G68" s="155"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="182"/>
-      <c r="K68" s="125"/>
-      <c r="L68" s="171"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="154"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="181"/>
+      <c r="K68" s="124"/>
+      <c r="L68" s="170"/>
     </row>
     <row r="69" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="167"/>
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
+      <c r="A69" s="166"/>
+      <c r="B69" s="167"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="167"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="167"/>
       <c r="H69" s="83"/>
       <c r="I69" s="83"/>
-      <c r="J69" s="108"/>
+      <c r="J69" s="107"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="127"/>
+      <c r="A70" s="126"/>
       <c r="B70" s="88"/>
       <c r="C70" s="89"/>
-      <c r="D70" s="243"/>
-      <c r="E70" s="244"/>
-      <c r="F70" s="245"/>
+      <c r="D70" s="310"/>
+      <c r="E70" s="311"/>
+      <c r="F70" s="312"/>
       <c r="G70" s="88"/>
-      <c r="H70" s="159"/>
-      <c r="I70" s="158"/>
-      <c r="J70" s="127"/>
+      <c r="H70" s="158"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="126"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="91"/>
-      <c r="B71" s="167"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="246"/>
-      <c r="E71" s="247"/>
-      <c r="F71" s="248"/>
-      <c r="G71" s="167"/>
-      <c r="H71" s="161"/>
-      <c r="I71" s="160"/>
+      <c r="B71" s="166"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="288"/>
+      <c r="E71" s="289"/>
+      <c r="F71" s="313"/>
+      <c r="G71" s="166"/>
+      <c r="H71" s="160"/>
+      <c r="I71" s="159"/>
       <c r="J71" s="91"/>
     </row>
     <row r="72" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="236" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="237"/>
-      <c r="D72" s="249" t="s">
+      <c r="B72" s="308">
+        <v>42136</v>
+      </c>
+      <c r="C72" s="309"/>
+      <c r="D72" s="314" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="250"/>
-      <c r="F72" s="237"/>
-      <c r="G72" s="262" t="s">
+      <c r="E72" s="315"/>
+      <c r="F72" s="316"/>
+      <c r="G72" s="300" t="s">
         <v>74</v>
       </c>
-      <c r="H72" s="263"/>
-      <c r="I72" s="128" t="s">
+      <c r="H72" s="301"/>
+      <c r="I72" s="127" t="s">
         <v>39</v>
       </c>
       <c r="J72" s="97" t="s">
@@ -6983,76 +6989,76 @@
       <c r="A73" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="234" t="s">
+      <c r="B73" s="306" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="235"/>
-      <c r="D73" s="251" t="s">
+      <c r="C73" s="307"/>
+      <c r="D73" s="317" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="252"/>
-      <c r="F73" s="253"/>
-      <c r="G73" s="234" t="s">
+      <c r="E73" s="318"/>
+      <c r="F73" s="319"/>
+      <c r="G73" s="306" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="235"/>
-      <c r="I73" s="162" t="s">
+      <c r="H73" s="307"/>
+      <c r="I73" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="184" t="s">
+      <c r="J73" s="183" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J74" s="107"/>
+      <c r="J74" s="106"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J75" s="107"/>
+      <c r="J75" s="106"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J76" s="107"/>
+      <c r="J76" s="106"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J77" s="107"/>
+      <c r="J77" s="106"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J78" s="107"/>
+      <c r="J78" s="106"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J79" s="107"/>
+      <c r="J79" s="106"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J80" s="107"/>
+      <c r="J80" s="106"/>
     </row>
     <row r="81" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J81" s="107"/>
+      <c r="J81" s="106"/>
     </row>
     <row r="82" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J82" s="107"/>
+      <c r="J82" s="106"/>
     </row>
     <row r="83" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J83" s="107"/>
+      <c r="J83" s="106"/>
     </row>
     <row r="84" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J84" s="107"/>
+      <c r="J84" s="106"/>
     </row>
     <row r="85" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J85" s="107"/>
+      <c r="J85" s="106"/>
     </row>
     <row r="86" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J86" s="107"/>
+      <c r="J86" s="106"/>
     </row>
     <row r="87" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J87" s="107"/>
+      <c r="J87" s="106"/>
     </row>
     <row r="88" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J88" s="107"/>
+      <c r="J88" s="106"/>
     </row>
     <row r="89" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J89" s="107"/>
+      <c r="J89" s="106"/>
     </row>
     <row r="90" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J90" s="107"/>
+      <c r="J90" s="106"/>
     </row>
     <row r="91" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J91" s="79"/>
@@ -8064,46 +8070,46 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="C48:D50"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="J41:J42"/>
@@ -8120,46 +8126,46 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="C48:D50"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.27559055118110198" top="0.47" bottom="0.45" header="0.34" footer="0.37"/>
